--- a/Documents/RDBES Data Model VD SL.xlsx
+++ b/Documents/RDBES Data Model VD SL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="111">
   <si>
     <t>Hide</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t xml:space="preserve">ISO 3166-1 codes: the flag country of the vessel. </t>
+  </si>
+  <si>
+    <t>Year for which the vessel is operating</t>
   </si>
 </sst>
 </file>
@@ -759,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,130 +847,136 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D4" s="9">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="J5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="9">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L6" s="7" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="9">
-        <v>2</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -975,7 +984,7 @@
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>47</v>
@@ -1002,14 +1011,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>51</v>
@@ -1041,7 +1050,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>54</v>
@@ -1073,7 +1082,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>59</v>
@@ -1100,12 +1109,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>63</v>
@@ -1137,7 +1146,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>100</v>
@@ -1169,7 +1178,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>98</v>

--- a/Documents/RDBES Data Model VD SL.xlsx
+++ b/Documents/RDBES Data Model VD SL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="112">
   <si>
     <t>Hide</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Slyear</t>
-  </si>
-  <si>
     <t>Species code</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
   </si>
   <si>
     <t xml:space="preserve">Vessel power </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VDpower </t>
   </si>
   <si>
     <t>VDpwr</t>
@@ -365,6 +359,15 @@
   </si>
   <si>
     <t>Year for which the vessel is operating</t>
+  </si>
+  <si>
+    <t>SLyear</t>
+  </si>
+  <si>
+    <t>VDpower</t>
+  </si>
+  <si>
+    <t>Decimal</t>
   </si>
 </sst>
 </file>
@@ -763,7 +766,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +804,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>9</v>
@@ -822,26 +825,26 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>16</v>
@@ -858,10 +861,10 @@
         <v>17</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>20</v>
@@ -871,10 +874,10 @@
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -887,13 +890,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>20</v>
@@ -902,13 +905,13 @@
         <v>15</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -924,25 +927,25 @@
         <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -955,13 +958,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>20</v>
@@ -970,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -987,28 +990,28 @@
         <v>5</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="G7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="L7" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1021,13 +1024,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>20</v>
@@ -1036,13 +1039,13 @@
         <v>15</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1053,28 +1056,28 @@
         <v>7</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="L9" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
@@ -1085,13 +1088,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>20</v>
@@ -1100,13 +1103,13 @@
         <v>15</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
@@ -1117,28 +1120,28 @@
         <v>9</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="H11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="10" t="s">
+      <c r="L11" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1149,28 +1152,28 @@
         <v>10</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="48.75" x14ac:dyDescent="0.25">
@@ -1181,28 +1184,28 @@
         <v>11</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>20</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1216,7 +1219,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,10 +1281,10 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -1297,7 +1300,7 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>16</v>
@@ -1343,13 +1346,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="G4" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>20</v>
@@ -1358,13 +1361,13 @@
         <v>15</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1377,13 +1380,13 @@
         <v>3</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>20</v>
@@ -1392,7 +1395,7 @@
         <v>15</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
@@ -1410,10 +1413,10 @@
         <v>23</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>20</v>
@@ -1422,7 +1425,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>24</v>
@@ -1444,10 +1447,10 @@
         <v>25</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>14</v>
@@ -1473,13 +1476,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>20</v>
@@ -1489,10 +1492,10 @@
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1505,13 +1508,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>14</v>
@@ -1520,13 +1523,13 @@
         <v>15</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1539,13 +1542,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>14</v>
@@ -1554,33 +1557,33 @@
         <v>15</v>
       </c>
       <c r="J10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="L10" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/RDBES Data Model VD SL.xlsx
+++ b/Documents/RDBES Data Model VD SL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vessel Details" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="124">
   <si>
     <t>Hide</t>
   </si>
@@ -169,9 +169,6 @@
     <t>O</t>
   </si>
   <si>
-    <t>LOCODE of home port</t>
-  </si>
-  <si>
     <t>Vessel flag country</t>
   </si>
   <si>
@@ -334,8 +331,57 @@
     <t>VDctry</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ISO 3166 – 1 </t>
+    <t>Not in Format</t>
+  </si>
+  <si>
+    <t>Year for which the vessel is operating</t>
+  </si>
+  <si>
+    <t>SLyear</t>
+  </si>
+  <si>
+    <t>VDpower</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Encrypted vessel identifier </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max. 100 characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, encrypted by the national institute before it is upload. Id encrypted so that no-one can map the Id to the real vessel. This code should be used by the Encrypted Vessel Identifier field in the Vessel Selection. If the characteristics of the vessel change range group e.g. length group, then a new encrypted vessel code have to be inserted. If regional sampling schemes are use, then the vessels have to be coordinated across countries, so one vessel only appears as one record/vessel in this Vessel Details table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ISO 3166 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alfa-2 codes, but also e.g. GB-SCT</t>
     </r>
     <r>
       <rPr>
@@ -345,36 +391,197 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>codes. The country that did the sampling</t>
-    </r>
-  </si>
-  <si>
-    <t>Not in Format</t>
-  </si>
-  <si>
-    <t>Encrypted vessel identifier, encrypted by the national institute before it is upload. Id encrypted so that no-one can map the Id to the real vessel. This code should be used by the Encrypted Vessel Identifier field in the Vessel Selection. If the characteristics of the vessel change range group e.g. length group, then a new encrypted vessel code have to be inserted. If regional sampling schemes are use, then the vessels have to be coordinated across countries, so one vessel only appears as one record/vessel in this Vessel Details table.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO 3166-1 codes: the flag country of the vessel. </t>
-  </si>
-  <si>
-    <t>Year for which the vessel is operating</t>
-  </si>
-  <si>
-    <t>SLyear</t>
-  </si>
-  <si>
-    <t>VDpower</t>
-  </si>
-  <si>
-    <t>Decimal</t>
+      <t>. The country that did the sampling</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ISO 3166 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alfa-2 codes, but also e.g. GB-SCT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">he flag country of the vessel. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(100)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ISO 3166 alfa-2 codes, but also e.g. GB-SCT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Country of the species list</t>
+    </r>
+  </si>
+  <si>
+    <t>ISO_3166</t>
+  </si>
+  <si>
+    <t>Harbour_LOCODE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LOCODE of home </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>harbour/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>port</t>
+    </r>
+  </si>
+  <si>
+    <t>EDMO</t>
+  </si>
+  <si>
+    <t>Institute uploading the species list.</t>
+  </si>
+  <si>
+    <t>RS_CatchFraction</t>
+  </si>
+  <si>
+    <t>SpecWoRMS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>table code list</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> name of the species list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which each country have uploaded to the Species list SL file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>RS_VesselLengthCategory</t>
+  </si>
+  <si>
+    <t>RS_VesselSizeUnit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +606,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -451,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -481,6 +695,17 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -763,10 +988,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +1053,7 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>40</v>
@@ -844,7 +1072,7 @@
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>16</v>
@@ -880,7 +1108,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
@@ -890,28 +1118,28 @@
         <v>2</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="H4" s="9" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -927,13 +1155,13 @@
         <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>15</v>
@@ -942,13 +1170,13 @@
         <v>28</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -958,13 +1186,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>20</v>
@@ -972,17 +1200,17 @@
       <c r="I6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>104</v>
+      <c r="J6" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1004,17 +1232,17 @@
       <c r="I7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>28</v>
+      <c r="J7" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
@@ -1024,13 +1252,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>20</v>
@@ -1038,14 +1266,14 @@
       <c r="I8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>28</v>
+      <c r="J8" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1056,31 +1284,31 @@
         <v>7</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="H9" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>48</v>
       </c>
       <c r="J9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="L9" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1088,13 +1316,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>20</v>
@@ -1102,14 +1330,14 @@
       <c r="I10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>28</v>
+      <c r="J10" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
@@ -1120,13 +1348,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>42</v>
@@ -1135,13 +1363,13 @@
         <v>48</v>
       </c>
       <c r="J11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1152,13 +1380,13 @@
         <v>10</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>42</v>
@@ -1167,13 +1395,13 @@
         <v>48</v>
       </c>
       <c r="J12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="L12" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="48.75" x14ac:dyDescent="0.25">
@@ -1184,13 +1412,13 @@
         <v>11</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>20</v>
@@ -1198,14 +1426,14 @@
       <c r="I13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>28</v>
+      <c r="J13" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="K13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1216,10 +1444,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,10 +1512,10 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -1300,7 +1531,7 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>16</v>
@@ -1336,7 +1567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
@@ -1346,13 +1577,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>20</v>
@@ -1360,14 +1591,14 @@
       <c r="I4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>88</v>
+      <c r="J4" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1380,13 +1611,13 @@
         <v>3</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>91</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>20</v>
@@ -1394,13 +1625,17 @@
       <c r="I5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J5" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
@@ -1413,10 +1648,10 @@
         <v>23</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>20</v>
@@ -1424,11 +1659,11 @@
       <c r="I6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>73</v>
+      <c r="J6" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>24</v>
@@ -1447,10 +1682,10 @@
         <v>25</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>14</v>
@@ -1458,7 +1693,9 @@
       <c r="I7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="11"/>
+      <c r="J7" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="K7" s="12" t="s">
         <v>25</v>
       </c>
@@ -1482,7 +1719,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>20</v>
@@ -1490,7 +1727,9 @@
       <c r="I8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="11"/>
+      <c r="J8" s="18" t="s">
+        <v>118</v>
+      </c>
       <c r="K8" s="13" t="s">
         <v>33</v>
       </c>
@@ -1508,13 +1747,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="G9" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>14</v>
@@ -1522,17 +1761,17 @@
       <c r="I9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>28</v>
+      <c r="J9" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11" t="s">
@@ -1545,7 +1784,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>27</v>
@@ -1556,10 +1795,10 @@
       <c r="I10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="12" t="s">
+      <c r="J10" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="14" t="s">
         <v>29</v>
       </c>
       <c r="L10" s="12" t="s">

--- a/Documents/RDBES Data Model VD SL.xlsx
+++ b/Documents/RDBES Data Model VD SL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300"/>
   </bookViews>
   <sheets>
     <sheet name="Vessel Details" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="127">
   <si>
     <t>Hide</t>
   </si>
@@ -576,12 +576,21 @@
   <si>
     <t>RS_VesselSizeUnit</t>
   </si>
+  <si>
+    <t>The reference from SS to the SL is throgh; Country, SpeciesListName, Year and CatchFraction</t>
+  </si>
+  <si>
+    <t>UK1</t>
+  </si>
+  <si>
+    <t>Ver 18.1.2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,6 +620,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -665,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -708,6 +732,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,10 +1023,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1144,7 @@
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D4" s="9">
         <v>2</v>
@@ -1147,7 +1179,9 @@
         <v>11</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="C5" s="16" t="s">
+        <v>125</v>
+      </c>
       <c r="D5" s="9">
         <v>3</v>
       </c>
@@ -1181,7 +1215,9 @@
         <v>11</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="21" t="s">
+        <v>125</v>
+      </c>
       <c r="D6" s="9">
         <v>4</v>
       </c>
@@ -1245,8 +1281,8 @@
     <row r="8" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>11</v>
+      <c r="C8" s="22" t="s">
+        <v>125</v>
       </c>
       <c r="D8" s="9">
         <v>6</v>
@@ -1434,6 +1470,11 @@
       </c>
       <c r="L13" s="9" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1449,8 +1490,8 @@
   </sheetPr>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,7 +1645,7 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="11">
@@ -1805,6 +1846,11 @@
         <v>30</v>
       </c>
     </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>36</v>

--- a/Documents/RDBES Data Model VD SL.xlsx
+++ b/Documents/RDBES Data Model VD SL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="128">
   <si>
     <t>Hide</t>
   </si>
@@ -583,14 +583,17 @@
     <t>UK1</t>
   </si>
   <si>
-    <t>Ver 18.1.2</t>
+    <t>Field Name Description</t>
+  </si>
+  <si>
+    <t>Ver 18.1.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,6 +638,14 @@
     </font>
     <font>
       <strike/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -689,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -740,6 +751,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1026,7 +1041,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,8 +1066,8 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
+      <c r="E1" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
@@ -1474,7 +1489,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1491,7 +1506,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,8 +1534,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="E1" s="25" t="s">
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>

--- a/Documents/RDBES Data Model VD SL.xlsx
+++ b/Documents/RDBES Data Model VD SL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vessel Details" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="129">
   <si>
     <t>Hide</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>Ver 18.1.3</t>
+  </si>
+  <si>
+    <t>Vocabulary code type</t>
   </si>
 </sst>
 </file>
@@ -700,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -755,6 +758,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,10 +1046,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,11 +1057,12 @@
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.28515625" customWidth="1"/>
-    <col min="12" max="12" width="39.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="27"/>
+    <col min="12" max="12" width="41.28515625" customWidth="1"/>
+    <col min="13" max="13" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1084,14 +1093,17 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -1118,14 +1130,15 @@
         <v>15</v>
       </c>
       <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1148,14 +1161,15 @@
         <v>15</v>
       </c>
       <c r="J3" s="9"/>
-      <c r="K3" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="K3" s="16"/>
       <c r="L3" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
@@ -1182,14 +1196,15 @@
       <c r="J4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1218,14 +1233,17 @@
       <c r="J5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>104</v>
+      <c r="K5" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -1254,14 +1272,17 @@
       <c r="J6" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1286,14 +1307,17 @@
       <c r="J7" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>115</v>
+      <c r="K7" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="M7" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="22" t="s">
@@ -1320,14 +1344,17 @@
       <c r="J8" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="M8" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1352,14 +1379,15 @@
       <c r="J9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="K9" s="16"/>
       <c r="L9" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="M9" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1384,14 +1412,17 @@
       <c r="J10" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="M10" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1416,14 +1447,15 @@
       <c r="J11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="16"/>
+      <c r="L11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="M11" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1448,14 +1480,15 @@
       <c r="J12" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="K12" s="16"/>
       <c r="L12" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="M12" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1480,14 +1513,17 @@
       <c r="J13" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="M13" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -1503,10 +1539,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,12 +1552,13 @@
     <col min="6" max="6" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="44.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="42.140625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="12.85546875" style="20" customWidth="1"/>
+    <col min="12" max="12" width="44.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1552,14 +1589,17 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1586,14 +1626,15 @@
         <v>15</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1616,14 +1657,15 @@
         <v>15</v>
       </c>
       <c r="J3" s="11"/>
-      <c r="K3" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="K3" s="18"/>
       <c r="L3" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="M3" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
@@ -1650,14 +1692,17 @@
       <c r="J4" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="M4" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="23" t="s">
@@ -1685,13 +1730,16 @@
         <v>116</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L5" s="17" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="M5" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
@@ -1718,14 +1766,15 @@
       <c r="J6" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="M6" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
@@ -1752,14 +1801,17 @@
       <c r="J7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="17" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
@@ -1786,14 +1838,17 @@
       <c r="J8" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>33</v>
+      <c r="K8" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="L8" s="13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="11" t="s">
@@ -1820,14 +1875,17 @@
       <c r="J9" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="M9" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11" t="s">
@@ -1854,29 +1912,32 @@
       <c r="J10" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="M10" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>

--- a/Documents/RDBES Data Model VD SL.xlsx
+++ b/Documents/RDBES Data Model VD SL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300"/>
   </bookViews>
   <sheets>
     <sheet name="Vessel Details" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="130">
   <si>
     <t>Hide</t>
   </si>
@@ -346,155 +346,12 @@
     <t>Decimal</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Encrypted vessel identifier </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max. 100 characters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, encrypted by the national institute before it is upload. Id encrypted so that no-one can map the Id to the real vessel. This code should be used by the Encrypted Vessel Identifier field in the Vessel Selection. If the characteristics of the vessel change range group e.g. length group, then a new encrypted vessel code have to be inserted. If regional sampling schemes are use, then the vessels have to be coordinated across countries, so one vessel only appears as one record/vessel in this Vessel Details table.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ISO 3166 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>alfa-2 codes, but also e.g. GB-SCT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. The country that did the sampling</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ISO 3166 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>alfa-2 codes, but also e.g. GB-SCT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">he flag country of the vessel. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>String</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(100)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ISO 3166 alfa-2 codes, but also e.g. GB-SCT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Country of the species list</t>
-    </r>
-  </si>
-  <si>
     <t>ISO_3166</t>
   </si>
   <si>
     <t>Harbour_LOCODE</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">LOCODE of home </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>harbour/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>port</t>
-    </r>
-  </si>
-  <si>
     <t>EDMO</t>
   </si>
   <si>
@@ -507,70 +364,6 @@
     <t>SpecWoRMS</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>table code list</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>exact</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> name of the species list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, which each country have uploaded to the Species list SL file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>RS_VesselLengthCategory</t>
   </si>
   <si>
@@ -586,17 +379,44 @@
     <t>Field Name Description</t>
   </si>
   <si>
-    <t>Ver 18.1.3</t>
-  </si>
-  <si>
     <t>Vocabulary code type</t>
+  </si>
+  <si>
+    <t>code list</t>
+  </si>
+  <si>
+    <t>Ver 18.1.4</t>
+  </si>
+  <si>
+    <t>String(100)</t>
+  </si>
+  <si>
+    <t>Encrypted vessel identifier max. 100 characters, encrypted by the national institute before it is upload. Id encrypted so that no-one can map the Id to the real vessel. This code should be used by the Encrypted Vessel Identifier field in the Vessel Selection. If the characteristics of the vessel change range group e.g. length group, then a new encrypted vessel code have to be inserted. If regional sampling schemes are use, then the vessels have to be coordinated across countries, so one vessel only appears as one record/vessel in this Vessel Details table.</t>
+  </si>
+  <si>
+    <t>ISO 3166 alfa-2 codes, but also e.g. GB-SCT. The country that did the sampling</t>
+  </si>
+  <si>
+    <t>LOCODE of home harbour/port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISO 3166 alfa-2 codes, but also e.g. GB-SCT. The flag country of the vessel. </t>
+  </si>
+  <si>
+    <t>ISO 3166 alfa-2 codes, but also e.g. GB-SCT. Country of the species list</t>
+  </si>
+  <si>
+    <t>SL table code list</t>
+  </si>
+  <si>
+    <t>The exact name of the species list, which each country have uploaded to the Species list SL file.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,37 +440,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <strike/>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -703,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -721,48 +513,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,21 +817,21 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="27"/>
-    <col min="12" max="12" width="41.28515625" customWidth="1"/>
-    <col min="13" max="13" width="39.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" customWidth="1"/>
+    <col min="12" max="12" width="41.265625" customWidth="1"/>
+    <col min="13" max="13" width="39.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1075,8 +844,8 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>126</v>
+      <c r="E1" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
@@ -1093,8 +862,8 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
-        <v>128</v>
+      <c r="K1" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>10</v>
@@ -1103,7 +872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -1130,7 +899,7 @@
         <v>15</v>
       </c>
       <c r="J2" s="6"/>
-      <c r="K2" s="26"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="6" t="s">
         <v>99</v>
       </c>
@@ -1138,81 +907,81 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="9" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="9">
+        <v>117</v>
+      </c>
+      <c r="D4" s="7">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="M4" s="9" t="s">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="C5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="7">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -1233,7 +1002,7 @@
       <c r="J5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
@@ -1243,15 +1012,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="7">
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1269,263 +1038,263 @@
       <c r="I6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>109</v>
+      <c r="J6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>5</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="J7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="7">
         <v>6</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="M8" s="9" t="s">
+      <c r="J8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>7</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="9" t="s">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>8</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="L10" s="9" t="s">
+      <c r="J10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>9</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="9" t="s">
+      <c r="K11" s="7"/>
+      <c r="L11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>10</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="9" t="s">
+      <c r="K12" s="7"/>
+      <c r="L12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <v>11</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="L13" s="9" t="s">
+      <c r="J13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1541,24 +1310,23 @@
   </sheetPr>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.1328125" style="2"/>
+    <col min="5" max="5" width="17.86328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="12.85546875" style="20" customWidth="1"/>
-    <col min="12" max="12" width="44.42578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="42.140625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="10" width="9.1328125" style="2"/>
+    <col min="11" max="11" width="14.86328125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="42.1328125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1571,8 +1339,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>126</v>
+      <c r="E1" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -1589,8 +1357,8 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
-        <v>128</v>
+      <c r="K1" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -1599,7 +1367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1626,7 +1394,7 @@
         <v>15</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="28"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
         <v>99</v>
       </c>
@@ -1634,315 +1402,367 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="12" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>2</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="12">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="12">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="12">
+        <v>5</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="12">
+        <v>6</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="12">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="L9" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="12">
+        <v>8</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="L4" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="11">
-        <v>3</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="18" t="s">
+      <c r="L10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="11">
-        <v>4</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="11">
-        <v>5</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="11">
-        <v>6</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="11">
-        <v>7</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="11">
-        <v>8</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>

--- a/Documents/RDBES Data Model VD SL.xlsx
+++ b/Documents/RDBES Data Model VD SL.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC062AD-D667-4FF0-AF69-8669A3E7C015}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vessel Details" sheetId="2" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="130">
   <si>
     <t>Hide</t>
   </si>
@@ -385,9 +386,6 @@
     <t>code list</t>
   </si>
   <si>
-    <t>Ver 18.1.4</t>
-  </si>
-  <si>
     <t>String(100)</t>
   </si>
   <si>
@@ -410,12 +408,15 @@
   </si>
   <si>
     <t>The exact name of the species list, which each country have uploaded to the Species list SL file.</t>
+  </si>
+  <si>
+    <t>Ver 19.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -811,14 +812,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -957,7 +958,7 @@
         <v>74</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>15</v>
@@ -967,7 +968,7 @@
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>70</v>
@@ -1045,7 +1046,7 @@
         <v>108</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>91</v>
@@ -1080,18 +1081,16 @@
         <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="C8" s="10"/>
       <c r="D8" s="7">
         <v>6</v>
       </c>
@@ -1117,7 +1116,7 @@
         <v>108</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>49</v>
@@ -1294,7 +1293,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1304,7 +1303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -1464,7 +1463,7 @@
         <v>108</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>87</v>
@@ -1530,11 +1529,11 @@
         <v>15</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>24</v>

--- a/Documents/RDBES Data Model VD SL.xlsx
+++ b/Documents/RDBES Data Model VD SL.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC062AD-D667-4FF0-AF69-8669A3E7C015}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D666431-D72F-49CD-830C-14B8D8FD54E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,18 +212,12 @@
     <t>VDpwr</t>
   </si>
   <si>
-    <t>4-8500</t>
-  </si>
-  <si>
     <t>power in kW, and not in a category because it is needed to calculating the kWdays.</t>
   </si>
   <si>
     <t>Engine power (kW)</t>
   </si>
   <si>
-    <t>1-2500</t>
-  </si>
-  <si>
     <t>Vessel size in tonnes</t>
   </si>
   <si>
@@ -410,7 +404,13 @@
     <t>The exact name of the species list, which each country have uploaded to the Species list SL file.</t>
   </si>
   <si>
-    <t>Ver 19.1</t>
+    <t>4-9000</t>
+  </si>
+  <si>
+    <t>1-10000</t>
+  </si>
+  <si>
+    <t>Ver 1.19.1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,6 +465,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,9 +526,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -533,6 +536,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,9 +824,7 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -846,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
@@ -864,7 +868,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>10</v>
@@ -882,7 +886,7 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>40</v>
@@ -902,7 +906,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>16</v>
@@ -943,35 +947,35 @@
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" s="7">
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
@@ -980,7 +984,7 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" s="7">
         <v>3</v>
@@ -989,13 +993,13 @@
         <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>15</v>
@@ -1007,10 +1011,10 @@
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1019,19 +1023,19 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" s="7">
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>20</v>
@@ -1043,13 +1047,13 @@
         <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.45">
@@ -1078,13 +1082,13 @@
         <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.45">
@@ -1113,10 +1117,10 @@
         <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>49</v>
@@ -1139,7 +1143,7 @@
         <v>54</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>48</v>
@@ -1181,7 +1185,7 @@
         <v>28</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>60</v>
@@ -1201,7 +1205,7 @@
         <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>62</v>
@@ -1212,15 +1216,15 @@
       <c r="I11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>63</v>
+      <c r="J11" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
@@ -1231,13 +1235,13 @@
         <v>10</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>42</v>
@@ -1245,15 +1249,15 @@
       <c r="I12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>66</v>
+      <c r="J12" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
@@ -1264,13 +1268,13 @@
         <v>11</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>20</v>
@@ -1282,13 +1286,13 @@
         <v>28</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
@@ -1339,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -1357,7 +1361,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -1375,10 +1379,10 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -1395,361 +1399,361 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>2</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="11">
+        <v>3</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="F5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="K4" s="13" t="s">
+      <c r="J5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="11">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="12">
-        <v>3</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="M6" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="11">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="11">
+        <v>6</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="K5" s="13" t="s">
+      <c r="J8" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="11">
+        <v>7</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="L9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="11">
+        <v>8</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="12">
-        <v>4</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="12">
-        <v>5</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="12">
-        <v>6</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="12">
-        <v>7</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="12">
-        <v>8</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>113</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="A13" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">

--- a/Documents/RDBES Data Model VD SL.xlsx
+++ b/Documents/RDBES Data Model VD SL.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D666431-D72F-49CD-830C-14B8D8FD54E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018A22AA-0377-4D0D-8B45-7E1AB2822FF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,7 +410,7 @@
     <t>1-10000</t>
   </si>
   <si>
-    <t>Ver 1.19.1</t>
+    <t>Ver 1.19.2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,12 +465,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,7 +530,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -824,7 +818,9 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1159,7 +1155,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>

--- a/Documents/RDBES Data Model VD SL.xlsx
+++ b/Documents/RDBES Data Model VD SL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018A22AA-0377-4D0D-8B45-7E1AB2822FF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7630E097-0F7F-4116-B1C1-DBF26B8F6DB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="131">
   <si>
     <t>Hide</t>
   </si>
@@ -341,30 +341,9 @@
     <t>Decimal</t>
   </si>
   <si>
-    <t>ISO_3166</t>
-  </si>
-  <si>
-    <t>Harbour_LOCODE</t>
-  </si>
-  <si>
-    <t>EDMO</t>
-  </si>
-  <si>
     <t>Institute uploading the species list.</t>
   </si>
   <si>
-    <t>RS_CatchFraction</t>
-  </si>
-  <si>
-    <t>SpecWoRMS</t>
-  </si>
-  <si>
-    <t>RS_VesselLengthCategory</t>
-  </si>
-  <si>
-    <t>RS_VesselSizeUnit</t>
-  </si>
-  <si>
     <t>The reference from SS to the SL is throgh; Country, SpeciesListName, Year and CatchFraction</t>
   </si>
   <si>
@@ -411,6 +390,30 @@
   </si>
   <si>
     <t>Ver 1.19.2</t>
+  </si>
+  <si>
+    <t>Year //vocab.ices.dk/?ref=362</t>
+  </si>
+  <si>
+    <t>ISO_3166 //vocab.ices.dk/?ref=337</t>
+  </si>
+  <si>
+    <t>Harbour_LOCODE //vocab.ices.dk/?ref=1652</t>
+  </si>
+  <si>
+    <t>VesselLengthClass //vocab.ices.dk/?ref=1725</t>
+  </si>
+  <si>
+    <t>VesselSizeUnit //vocab.ices.dk/?ref=1632</t>
+  </si>
+  <si>
+    <t>SpecWoRMS //vocab.ices.dk/?ref=365</t>
+  </si>
+  <si>
+    <t>CatchFraction //vocab.ices.dk/?ref=1611</t>
+  </si>
+  <si>
+    <t>EDMO //vocab.ices.dk/?ref=1398</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,6 +468,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -531,6 +540,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -818,21 +839,19 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" customWidth="1"/>
-    <col min="12" max="12" width="41.265625" customWidth="1"/>
-    <col min="13" max="13" width="39.265625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="41.28515625" customWidth="1"/>
+    <col min="13" max="13" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -846,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
@@ -864,7 +883,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>10</v>
@@ -873,7 +892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -908,7 +927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -939,11 +958,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D4" s="7">
         <v>2</v>
@@ -958,7 +977,7 @@
         <v>72</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>15</v>
@@ -968,19 +987,19 @@
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D5" s="7">
         <v>3</v>
@@ -1004,7 +1023,7 @@
         <v>28</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>102</v>
@@ -1013,13 +1032,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D6" s="7">
         <v>4</v>
@@ -1043,16 +1062,16 @@
         <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1078,16 +1097,16 @@
         <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="10"/>
@@ -1113,16 +1132,16 @@
         <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1155,7 +1174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1180,8 +1199,8 @@
       <c r="J10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>112</v>
+      <c r="K10" s="18" t="s">
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>60</v>
@@ -1190,7 +1209,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1213,7 +1232,7 @@
         <v>48</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
@@ -1223,7 +1242,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1246,7 +1265,7 @@
         <v>48</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7" t="s">
@@ -1256,7 +1275,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1282,7 +1301,7 @@
         <v>28</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>66</v>
@@ -1291,9 +1310,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1310,22 +1329,22 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.1328125" style="2"/>
-    <col min="5" max="5" width="17.86328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.1328125" style="2"/>
-    <col min="11" max="11" width="14.86328125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="42.1328125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.1328125" style="2"/>
+    <col min="8" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="20.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="42.140625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +1358,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -1357,7 +1376,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -1366,7 +1385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1393,7 +1412,7 @@
         <v>15</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="K2" s="20"/>
       <c r="L2" s="4" t="s">
         <v>97</v>
       </c>
@@ -1401,7 +1420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1424,7 +1443,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="K3" s="17"/>
       <c r="L3" s="12" t="s">
         <v>21</v>
       </c>
@@ -1432,7 +1451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
@@ -1457,19 +1476,19 @@
         <v>15</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="13"/>
@@ -1492,19 +1511,19 @@
         <v>15</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="23.25" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
@@ -1529,17 +1548,17 @@
         <v>15</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="K6" s="12"/>
+        <v>118</v>
+      </c>
+      <c r="K6" s="7"/>
       <c r="L6" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
@@ -1564,10 +1583,10 @@
         <v>15</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>25</v>
+        <v>111</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>25</v>
@@ -1576,7 +1595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
@@ -1601,10 +1620,10 @@
         <v>15</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>33</v>
@@ -1613,7 +1632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="11" t="s">
@@ -1638,10 +1657,10 @@
         <v>15</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="K9" s="12" t="s">
         <v>111</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>81</v>
@@ -1650,7 +1669,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11" t="s">
@@ -1675,10 +1694,10 @@
         <v>15</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="K10" s="12" t="s">
         <v>111</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>29</v>
@@ -1687,7 +1706,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1698,11 +1717,11 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1713,13 +1732,13 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1730,11 +1749,11 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>36</v>
       </c>
@@ -1747,21 +1766,21 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>

--- a/Documents/RDBES Data Model VD SL.xlsx
+++ b/Documents/RDBES Data Model VD SL.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7630E097-0F7F-4116-B1C1-DBF26B8F6DB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665FF0DF-D877-401F-A1C5-523736BCAF50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,9 +188,6 @@
     <t>VDlen</t>
   </si>
   <si>
-    <t>3-160</t>
-  </si>
-  <si>
     <t>Overall length in metres.</t>
   </si>
   <si>
@@ -338,9 +335,6 @@
     <t>VDpower</t>
   </si>
   <si>
-    <t>Decimal</t>
-  </si>
-  <si>
     <t>Institute uploading the species list.</t>
   </si>
   <si>
@@ -389,9 +383,6 @@
     <t>1-10000</t>
   </si>
   <si>
-    <t>Ver 1.19.2</t>
-  </si>
-  <si>
     <t>Year //vocab.ices.dk/?ref=362</t>
   </si>
   <si>
@@ -414,6 +405,15 @@
   </si>
   <si>
     <t>EDMO //vocab.ices.dk/?ref=1398</t>
+  </si>
+  <si>
+    <t>Decimal(2)</t>
+  </si>
+  <si>
+    <t>3.00-160</t>
+  </si>
+  <si>
+    <t>Ver 1.19.3</t>
   </si>
 </sst>
 </file>
@@ -839,19 +839,21 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="41.28515625" customWidth="1"/>
-    <col min="13" max="13" width="39.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.265625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="41.265625" customWidth="1"/>
+    <col min="13" max="13" width="39.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -865,7 +867,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
@@ -883,7 +885,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>10</v>
@@ -892,7 +894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -901,7 +903,7 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>40</v>
@@ -921,13 +923,13 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -958,48 +960,48 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="7">
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="7">
         <v>3</v>
@@ -1008,13 +1010,13 @@
         <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>15</v>
@@ -1023,34 +1025,34 @@
         <v>28</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="7">
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>20</v>
@@ -1062,16 +1064,16 @@
         <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1097,16 +1099,16 @@
         <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="10"/>
@@ -1132,16 +1134,16 @@
         <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1157,24 +1159,24 @@
       <c r="G9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>105</v>
+      <c r="H9" s="18" t="s">
+        <v>128</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>55</v>
+      <c r="J9" s="18" t="s">
+        <v>129</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1182,13 +1184,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>20</v>
@@ -1200,16 +1202,16 @@
         <v>28</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1217,13 +1219,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>42</v>
@@ -1232,17 +1234,17 @@
         <v>48</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1250,13 +1252,13 @@
         <v>10</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>42</v>
@@ -1265,17 +1267,17 @@
         <v>48</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1283,13 +1285,13 @@
         <v>11</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>20</v>
@@ -1301,18 +1303,18 @@
         <v>28</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1332,19 +1334,19 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.1328125" style="2"/>
+    <col min="5" max="5" width="17.86328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="20.42578125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="42.140625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="10" width="9.1328125" style="2"/>
+    <col min="11" max="11" width="20.3984375" style="19" customWidth="1"/>
+    <col min="12" max="12" width="42.1328125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -1376,7 +1378,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -1385,7 +1387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1394,10 +1396,10 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
@@ -1414,13 +1416,13 @@
       <c r="J2" s="3"/>
       <c r="K2" s="20"/>
       <c r="L2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1451,7 +1453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
@@ -1461,13 +1463,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>20</v>
@@ -1476,19 +1478,19 @@
         <v>15</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="13"/>
@@ -1496,13 +1498,13 @@
         <v>3</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>20</v>
@@ -1511,19 +1513,19 @@
         <v>15</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
@@ -1536,10 +1538,10 @@
         <v>23</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>20</v>
@@ -1548,17 +1550,17 @@
         <v>15</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
@@ -1571,10 +1573,10 @@
         <v>25</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>14</v>
@@ -1583,10 +1585,10 @@
         <v>15</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>25</v>
@@ -1595,7 +1597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
@@ -1611,7 +1613,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>20</v>
@@ -1620,10 +1622,10 @@
         <v>15</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>33</v>
@@ -1632,7 +1634,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="11" t="s">
@@ -1642,13 +1644,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="G9" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>14</v>
@@ -1657,19 +1659,19 @@
         <v>15</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M9" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11" t="s">
@@ -1682,7 +1684,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>27</v>
@@ -1694,10 +1696,10 @@
         <v>15</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>29</v>
@@ -1706,7 +1708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1721,7 +1723,7 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1736,9 +1738,9 @@
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1753,7 +1755,7 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
         <v>36</v>
       </c>
@@ -1770,17 +1772,17 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>

--- a/Documents/RDBES Data Model VD SL.xlsx
+++ b/Documents/RDBES Data Model VD SL.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665FF0DF-D877-401F-A1C5-523736BCAF50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CC67E4-8630-4FF2-AE6C-A9F7310BD81C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="131">
   <si>
     <t>Hide</t>
   </si>
@@ -452,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,12 +468,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -540,9 +534,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -840,7 +831,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -848,7 +839,7 @@
     <col min="5" max="5" width="15.86328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.265625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="21.265625" style="18" customWidth="1"/>
     <col min="12" max="12" width="41.265625" customWidth="1"/>
     <col min="13" max="13" width="39.265625" customWidth="1"/>
   </cols>
@@ -1159,13 +1150,13 @@
       <c r="G9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="7" t="s">
         <v>128</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="K9" s="7"/>
@@ -1201,7 +1192,7 @@
       <c r="J10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="7" t="s">
         <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
@@ -1331,7 +1322,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1341,9 +1332,10 @@
     <col min="6" max="6" width="17.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="9.1328125" style="2"/>
-    <col min="11" max="11" width="20.3984375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="20.3984375" style="18" customWidth="1"/>
     <col min="12" max="12" width="42.1328125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.1328125" style="2"/>
+    <col min="13" max="13" width="25.796875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
@@ -1383,7 +1375,7 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1414,11 +1406,11 @@
         <v>15</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="20"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1449,7 +1441,7 @@
       <c r="L3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1486,7 +1478,7 @@
       <c r="L4" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="7" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1521,7 +1513,7 @@
       <c r="L5" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="7" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1556,11 +1548,11 @@
       <c r="L6" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
@@ -1593,7 +1585,7 @@
       <c r="L7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1630,7 +1622,7 @@
       <c r="L8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1667,7 +1659,7 @@
       <c r="L9" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1704,7 +1696,7 @@
       <c r="L10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1719,7 +1711,7 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="21"/>
+      <c r="K11" s="20"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
     </row>
@@ -1734,7 +1726,7 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
     </row>
@@ -1751,7 +1743,7 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="21"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
     </row>
@@ -1768,7 +1760,7 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="21"/>
+      <c r="K14" s="20"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
     </row>

--- a/Documents/RDBES Data Model VD SL.xlsx
+++ b/Documents/RDBES Data Model VD SL.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CC67E4-8630-4FF2-AE6C-A9F7310BD81C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334FD180-DE04-4AC9-9AC5-54147F0B9586}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,13 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="131">
-  <si>
-    <t>Hide</t>
-  </si>
-  <si>
-    <t>PK/FK</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="127">
   <si>
     <t>Unique combination of fields</t>
   </si>
@@ -56,9 +50,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>PK</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t>Fixed value ('SL')</t>
   </si>
   <si>
-    <t>Uk1</t>
-  </si>
-  <si>
     <t>SpeciesListName</t>
   </si>
   <si>
@@ -128,18 +116,12 @@
     <t>The Aphiaid code of the taxanomic species</t>
   </si>
   <si>
-    <t>This means that the SpeciesListDetail table will be taken out of all the hierarchies.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The SpeciesListDetail data will be uploaded before the hierarchies. The Species Selection record will use/refer to the SpeciesListName. </t>
   </si>
   <si>
     <t>The RDBES will then automatically insert the SpeciesListNameID in the Species Selection table.</t>
   </si>
   <si>
-    <t>In the database the the SpeciesListDetail data will be split in 3 tables: SpeciesListName, SpeciesListContent SpeciesListSpecies</t>
-  </si>
-  <si>
     <t>Required?</t>
   </si>
   <si>
@@ -341,9 +323,6 @@
     <t>The reference from SS to the SL is throgh; Country, SpeciesListName, Year and CatchFraction</t>
   </si>
   <si>
-    <t>UK1</t>
-  </si>
-  <si>
     <t>Field Name Description</t>
   </si>
   <si>
@@ -413,7 +392,16 @@
     <t>3.00-160</t>
   </si>
   <si>
-    <t>Ver 1.19.3</t>
+    <t>Ver 1.19.4</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Uk</t>
+  </si>
+  <si>
+    <t>In the database the the SpeciesListDetail data will be split in 2 tables: SpeciesListName and IndividualSpeciesInSpeciesList.</t>
   </si>
 </sst>
 </file>
@@ -452,7 +440,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +456,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -543,6 +537,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -828,23 +826,23 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.265625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="41.265625" customWidth="1"/>
-    <col min="13" max="13" width="39.265625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="41.28515625" customWidth="1"/>
+    <col min="11" max="11" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -852,460 +850,424 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K3" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="C11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="C12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="C13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="7">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.45">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.45">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="7">
-        <v>6</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7">
-        <v>7</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.45">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="H13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>123</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="24" x14ac:dyDescent="0.45">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7">
-        <v>10</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7">
-        <v>11</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1319,40 +1281,40 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.1328125" style="2"/>
-    <col min="5" max="5" width="17.86328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.1328125" style="2"/>
-    <col min="11" max="11" width="20.3984375" style="18" customWidth="1"/>
-    <col min="12" max="12" width="42.1328125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="25.796875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.1328125" style="2"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="17.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="20.42578125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="42.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -1363,344 +1325,318 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="K4" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="11">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="H7" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="11">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="11">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.45">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+      <c r="E9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="11">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="11">
-        <v>2</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="11">
-        <v>3</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="11">
-        <v>4</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.45">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="11">
-        <v>5</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="F10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.45">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="11">
-        <v>6</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="11">
-        <v>7</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.45">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="11">
-        <v>8</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="K10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1709,13 +1645,11 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1724,15 +1658,13 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1741,15 +1673,13 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1758,25 +1688,26 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/RDBES Data Model VD SL.xlsx
+++ b/Documents/RDBES Data Model VD SL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334FD180-DE04-4AC9-9AC5-54147F0B9586}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEDB471-6269-4F0E-A535-8D51FD16CFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vessel Details" sheetId="2" r:id="rId1"/>
-    <sheet name="Species List Details" sheetId="1" r:id="rId2"/>
+    <sheet name="Species List" sheetId="1" r:id="rId2"/>
+    <sheet name="Individual Species" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="131">
   <si>
     <t>Unique combination of fields</t>
   </si>
@@ -92,9 +93,6 @@
     <t>Species code</t>
   </si>
   <si>
-    <t>SLsppCode</t>
-  </si>
-  <si>
     <t>Code list</t>
   </si>
   <si>
@@ -116,9 +114,6 @@
     <t>The Aphiaid code of the taxanomic species</t>
   </si>
   <si>
-    <t xml:space="preserve">The SpeciesListDetail data will be uploaded before the hierarchies. The Species Selection record will use/refer to the SpeciesListName. </t>
-  </si>
-  <si>
     <t>The RDBES will then automatically insert the SpeciesListNameID in the Species Selection table.</t>
   </si>
   <si>
@@ -227,24 +222,15 @@
     <t>Commercial Taxon</t>
   </si>
   <si>
-    <t>SLcommercialTaxon</t>
-  </si>
-  <si>
     <t>SLcatchFrac</t>
   </si>
   <si>
-    <t>SLcommTaxon</t>
-  </si>
-  <si>
     <t>SLspeclistName</t>
   </si>
   <si>
     <t>SLspeciesListName</t>
   </si>
   <si>
-    <t>SLspeciesCode</t>
-  </si>
-  <si>
     <t>The Aphiaid code of the commercial taxon actually selected as given by www.marinespecies.org. The taxa actually selected can be species (e.g., 126436 = Gadus morhua, i.e., Atlantic cod) but also more general taxonomic groups corresponding to commercial designations present at ports or markets and that may include multiple species. In the latter case use the aphiaID that best approximates the commercial name you selected for (e.g., 125802 = Lophius spp for "Monkfishes nei"; Rajiformes for "Skates nei"; 368409 = Batoidea for "Skates and Rays nei")</t>
   </si>
   <si>
@@ -320,9 +306,6 @@
     <t>Institute uploading the species list.</t>
   </si>
   <si>
-    <t>The reference from SS to the SL is throgh; Country, SpeciesListName, Year and CatchFraction</t>
-  </si>
-  <si>
     <t>Field Name Description</t>
   </si>
   <si>
@@ -392,16 +375,46 @@
     <t>3.00-160</t>
   </si>
   <si>
-    <t>Ver 1.19.4</t>
-  </si>
-  <si>
     <t>UK</t>
   </si>
   <si>
     <t>Uk</t>
   </si>
   <si>
-    <t>In the database the the SpeciesListDetail data will be split in 2 tables: SpeciesListName and IndividualSpeciesInSpeciesList.</t>
+    <t>IndividualSpeciesInSpeciesListID</t>
+  </si>
+  <si>
+    <t>ISid</t>
+  </si>
+  <si>
+    <t>ISrecordType</t>
+  </si>
+  <si>
+    <t>ISrecType</t>
+  </si>
+  <si>
+    <t>Fixed value ('IS')</t>
+  </si>
+  <si>
+    <t>Last two fields deleted in this table and movde to the new Individual Species table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The SpeciesListDetail data will be uploaded before the hierarchies. The Species Selection record will refer to the SpeciesListName. </t>
+  </si>
+  <si>
+    <t>IScommercialTaxon</t>
+  </si>
+  <si>
+    <t>IScommTaxon</t>
+  </si>
+  <si>
+    <t>ISspeciesCode</t>
+  </si>
+  <si>
+    <t>ISsppCode</t>
+  </si>
+  <si>
+    <t>Ver 1.20</t>
   </si>
 </sst>
 </file>
@@ -495,39 +508,34 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -536,12 +544,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,13 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,437 +851,437 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="15" customWidth="1"/>
     <col min="10" max="10" width="41.28515625" customWidth="1"/>
     <col min="11" max="11" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="K7" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="C9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="C11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="G11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="7">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="7">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="17" t="s">
+      <c r="H13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="J13" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1281,34 +1295,33 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="17.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="20.42578125" style="18" customWidth="1"/>
-    <col min="10" max="10" width="42.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="42.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1325,390 +1338,498 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>101</v>
+      <c r="I1" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433EAEFD-90BA-40E9-83DF-20B7D37C8D8E}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="46.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="D4" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="20">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="C5" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11">
+      <c r="H5" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="20">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="C6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="11">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="11">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="H6" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="11">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="11">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="11">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="J10" s="9" t="s">
+      <c r="I6" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/RDBES Data Model VD SL.xlsx
+++ b/Documents/RDBES Data Model VD SL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29725"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEDB471-6269-4F0E-A535-8D51FD16CFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{28848BD8-AA77-4FC6-9ACB-32D66C8FF27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E999AB14-A1E0-411D-ACBA-13C962041BF9}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vessel Details" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="130">
   <si>
     <t>Unique combination of fields</t>
   </si>
@@ -396,9 +396,6 @@
     <t>Fixed value ('IS')</t>
   </si>
   <si>
-    <t>Last two fields deleted in this table and movde to the new Individual Species table</t>
-  </si>
-  <si>
     <t xml:space="preserve">The SpeciesListDetail data will be uploaded before the hierarchies. The Species Selection record will refer to the SpeciesListName. </t>
   </si>
   <si>
@@ -414,7 +411,7 @@
     <t>ISsppCode</t>
   </si>
   <si>
-    <t>Ver 1.20</t>
+    <t>Ver 1.21</t>
   </si>
 </sst>
 </file>
@@ -453,7 +450,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,12 +466,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,20 +535,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -842,21 +833,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="41.28515625" customWidth="1"/>
-    <col min="11" max="11" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.26953125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="41.26953125" customWidth="1"/>
+    <col min="11" max="11" width="39.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="37.25" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -891,7 +882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="25" x14ac:dyDescent="0.75">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -922,7 +913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="6"/>
       <c r="B3" s="6">
         <v>1</v>
@@ -951,7 +942,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="136.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A4" s="6" t="s">
         <v>117</v>
       </c>
@@ -984,7 +975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="25" x14ac:dyDescent="0.75">
       <c r="A5" s="6" t="s">
         <v>117</v>
       </c>
@@ -1019,7 +1010,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A6" s="6" t="s">
         <v>117</v>
       </c>
@@ -1054,7 +1045,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="25" x14ac:dyDescent="0.75">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>5</v>
@@ -1087,7 +1078,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="25" x14ac:dyDescent="0.75">
       <c r="A8" s="8"/>
       <c r="B8" s="6">
         <v>6</v>
@@ -1120,7 +1111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="6"/>
       <c r="B9" s="6">
         <v>7</v>
@@ -1151,7 +1142,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="25" x14ac:dyDescent="0.75">
       <c r="A10" s="6"/>
       <c r="B10" s="6">
         <v>8</v>
@@ -1184,7 +1175,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="25" x14ac:dyDescent="0.75">
       <c r="A11" s="6"/>
       <c r="B11" s="6">
         <v>9</v>
@@ -1215,7 +1206,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="6"/>
       <c r="B12" s="6">
         <v>10</v>
@@ -1246,7 +1237,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="49.5" x14ac:dyDescent="0.75">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>11</v>
@@ -1279,9 +1270,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1292,28 +1283,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.86328125" customWidth="1"/>
+    <col min="4" max="4" width="17.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="42.140625" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.40625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="42.1328125" customWidth="1"/>
+    <col min="11" max="11" width="25.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="37.25" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1379,7 +1367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="9"/>
       <c r="B3" s="9">
         <v>1</v>
@@ -1408,7 +1396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="25" x14ac:dyDescent="0.75">
       <c r="A4" s="9" t="s">
         <v>118</v>
       </c>
@@ -1443,7 +1431,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="25" x14ac:dyDescent="0.75">
       <c r="A5" s="11"/>
       <c r="B5" s="9">
         <v>3</v>
@@ -1476,7 +1464,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="24.5" x14ac:dyDescent="0.75">
       <c r="A6" s="9" t="s">
         <v>118</v>
       </c>
@@ -1509,7 +1497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="25" x14ac:dyDescent="0.75">
       <c r="A7" s="9" t="s">
         <v>118</v>
       </c>
@@ -1544,7 +1532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="25" x14ac:dyDescent="0.75">
       <c r="A8" s="9" t="s">
         <v>118</v>
       </c>
@@ -1579,10 +1567,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>124</v>
-      </c>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -1594,12 +1580,12 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1611,30 +1597,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433EAEFD-90BA-40E9-83DF-20B7D37C8D8E}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" customWidth="1"/>
+    <col min="3" max="3" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.40625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.40625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="46.7265625" customWidth="1"/>
+    <col min="11" max="11" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="37.25" x14ac:dyDescent="0.75">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1669,7 +1652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="25" x14ac:dyDescent="0.75">
       <c r="A2" s="20" t="s">
         <v>9</v>
       </c>
@@ -1700,7 +1683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="25" x14ac:dyDescent="0.75">
       <c r="A3" s="20" t="s">
         <v>118</v>
       </c>
@@ -1729,7 +1712,7 @@
       </c>
       <c r="K3" s="21"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="20"/>
       <c r="B4" s="20">
         <v>1</v>
@@ -1758,7 +1741,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="130.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="20" t="s">
         <v>118</v>
       </c>
@@ -1769,10 +1752,10 @@
         <v>65</v>
       </c>
       <c r="D5" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>126</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>127</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>11</v>
@@ -1793,7 +1776,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="25" x14ac:dyDescent="0.75">
       <c r="A6" s="20" t="s">
         <v>118</v>
       </c>
@@ -1804,10 +1787,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>128</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>129</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>11</v>
@@ -1828,7 +1811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="I7" s="15"/>
     </row>
   </sheetData>
